--- a/data/trans_dic/P26_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P26_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha aumentado el consumo de medicación respecto al último mes</t>
+          <t>Población que ha aumentado el consumo de medicación respecto al último mes (tasa de respuesta: 99,93%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,91%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>37,31%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,79%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,14%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
+          <t>6,06%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,32%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>12,28%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>26,74%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,2</t>
+          <t>0,0; 10,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,86; 16,24</t>
+          <t>0,0; 10,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,98; 26,49</t>
+          <t>4,27; 30,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,05; 17,33</t>
+          <t>7,21; 76,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,23; 24,85</t>
+          <t>1,59; 14,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,96; 22,64</t>
+          <t>4,63; 23,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,02; 61,76</t>
+          <t>3,25; 17,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,8; 12,09</t>
+          <t>2,79; 23,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,47; 16,28</t>
+          <t>7,41; 33,25</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,35; 17,69</t>
+          <t>1,03; 9,21</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,65; 44,98</t>
+          <t>2,44; 12,32</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,85; 11,13</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>5,89; 21,84</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>10,66; 52,67</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>6,68%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>8,13%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>7,44%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>5,21%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 12,72</t>
+          <t>1,57; 7,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,57; 16,6</t>
+          <t>1,19; 7,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,5; 28,21</t>
+          <t>3,44; 12,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,49; 16,8</t>
+          <t>1,39; 7,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,73; 17,86</t>
+          <t>1,65; 7,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,79; 24,21</t>
+          <t>5,7; 14,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,76; 20,15</t>
+          <t>8,46; 18,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,04; 12,21</t>
+          <t>4,44; 12,12</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,63; 13,63</t>
+          <t>3,86; 11,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,44; 19,1</t>
+          <t>0,84; 3,94</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,06; 20,81</t>
+          <t>4,51; 9,75</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>5,64; 11,2</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>5,03; 11,42</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>3,25; 7,99</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>25,45%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,21%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>20,44%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>3,26%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>7,34%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>6,89%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,99%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,8; 22,49</t>
+          <t>1,36; 7,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 12,37</t>
+          <t>0,73; 6,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,44; 23,53</t>
+          <t>2,89; 11,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,39; 23,59</t>
+          <t>3,01; 11,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 17,44</t>
+          <t>1,27; 9,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,0; 17,21</t>
+          <t>0,0; 4,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,16; 33,86</t>
+          <t>1,77; 7,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,78; 28,45</t>
+          <t>5,02; 13,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,72; 15,66</t>
+          <t>4,0; 11,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,81; 13,03</t>
+          <t>2,98; 10,63</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,06; 26,3</t>
+          <t>0,95; 4,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,81; 23,57</t>
+          <t>1,62; 5,87</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>4,88; 10,84</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>4,14; 9,65</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2,79; 8,63</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,24; 10,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,0; 8,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,8; 14,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,95; 21,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,57; 12,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,41; 16,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,43; 23,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,07; 34,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,37; 10,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,18; 11,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,91; 18,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,75; 26,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,67%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,78%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,12%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8,16%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9,3%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,9%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7,36%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10,45%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7,74%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8,8%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,33%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5,24%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>7,44%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>7,94%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>9,04%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 3,73</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,41; 5,19</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,26; 6,98</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5,32; 11,78</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3,6; 24,12</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1,67; 5,12</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5,04; 9,92</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>7,73; 13,57</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5,35; 10,92</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>5,86; 12,37</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1,38; 3,56</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>3,69; 6,9</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>5,76; 9,62</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>6,17; 10,52</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>5,85; 16,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha aumentado el consumo de medicación respecto al último mes (tasa de respuesta: 99,93%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2331</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2165</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>18200</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>66267</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6027</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>16327</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>9475</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>10835</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>38435</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>8358</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>16327</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>11640</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>29035</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>104702</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10968</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10614</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4874; 34357</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12805; 135441</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1876; 16520</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6516; 33082</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3691; 20277</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3409; 28162</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>15856; 71144</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2269; 20368</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6585; 33204</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>4050; 24360</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>13922; 51661</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>41729; 206254</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>16708</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12652</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>28426</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>17977</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>14810</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>42990</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>48916</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>29197</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>34689</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>14810</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>59698</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>61568</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>57623</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>52666</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6754; 33467</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4479; 27703</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>13760; 51444</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>7172; 37476</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6437; 29093</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>26485; 67352</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>32242; 71801</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>16651; 45468</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>19118; 55758</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6324; 29846</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>40317; 87173</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>42733; 84818</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>38995; 88506</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>32855; 80797</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10257</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8063</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>16669</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>17719</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13197</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>16770</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>29326</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>23812</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>24232</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>14597</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>24834</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>45995</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>41531</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>37429</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3875; 22703</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2429; 21680</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8168; 32589</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8281; 32495</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4495; 33281</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16083</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7572; 33771</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17304; 46775</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>13110; 38847</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>11855; 42226</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6139; 28423</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>12339; 44654</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>30571; 67997</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>24929; 58189</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>20908; 64759</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>12588</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>24771</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>31487</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>64345</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>97441</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>25177</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>76088</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>87716</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>63845</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>97355</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>37765</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>100859</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>119203</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>128190</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>194796</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4401; 28186</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>12576; 46270</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>17248; 53365</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>41946; 92952</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>37719; 252691</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>14462; 44413</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>52121; 102543</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>64882; 113868</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>44121; 90124</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>64808; 136785</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>22371; 57803</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>71009; 132881</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>92389; 154142</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>99561; 169783</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>126022; 357540</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
